--- a/biology/Botanique/Cornaceae/Cornaceae.xlsx
+++ b/biology/Botanique/Cornaceae/Cornaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Cornaceae (Cornacées) regroupe des plantes dicotylédones. Ce sont des arbres ou des arbustes ainsi que quelques plantes herbacées, des régions tempérées, subtropicales et des montagnes tropicales. C'est la famille du cornouiller mâle (Cornus mas) aux baies rouges ovalo-cylindriques comestibles.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cornus, qui selon Fournier est « l’ancien nom latin de ces arbustes ; sans rapport avec cornu, corne, mais plutôt avec cerasus, cerisier[2] ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cornus, qui selon Fournier est « l’ancien nom latin de ces arbustes ; sans rapport avec cornu, corne, mais plutôt avec cerasus, cerisier ».
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En classification phylogénétique APG (1998)[3] comme en classification classique de Cronquist (1981)[4], la famille des Cornaceae est assignée à l'ordre des Cornales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En classification phylogénétique APG (1998) comme en classification classique de Cronquist (1981), la famille des Cornaceae est assignée à l'ordre des Cornales.
 Les contours de cette famille sont encore discutés :
-En classification phylogénétique APG III (2009)[5] cette famille n'est pas différenciée et les genres composant la famille des Nyssaceae (Camptotheca, Davidia, Diplopanax, Mastixia et Nyssa) sont incorporés dans la famille des Cornacées.
-Par contre, en classification phylogénétique APG IV (2016)[6], les Nyssacées sont séparés des Cornaceae,</t>
+En classification phylogénétique APG III (2009) cette famille n'est pas différenciée et les genres composant la famille des Nyssaceae (Camptotheca, Davidia, Diplopanax, Mastixia et Nyssa) sont incorporés dans la famille des Cornacées.
+Par contre, en classification phylogénétique APG IV (2016), les Nyssacées sont séparés des Cornaceae,</t>
         </is>
       </c>
     </row>
@@ -575,10 +591,12 @@
           <t>Liste des genres et sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Note : † = genres éteints (fossiles).
-Selon  BioLib                    (14 avril 2019)[7] :
+Selon  BioLib                    (14 avril 2019) :
 sous-famille Cornoideae Endlicher
 genre Alangium Lam.
 genre Chamaepericlymenum (pt) Graebn.
@@ -593,19 +611,19 @@
 genre Nyssa Gronov. ex L.
 genre Retinomastixia Kirchheimer †
 genre Tectocarya Kirchheimer †
-Selon GRIN            (14 avril 2019)[1] :
+Selon GRIN            (14 avril 2019) :
 genre Alangium
 genre Cornus
-Selon World Checklist of Selected Plant Families (WCSP)  (14 avril 2019)[8] :
+Selon World Checklist of Selected Plant Families (WCSP)  (14 avril 2019) :
 genre Alangium Lam. (1783)
 genre Cornus L. (1753)
 genre Kaliphora (en) Hook.f. (1867)
-Selon NCBI  (14 avril 2019)[9] :
+Selon NCBI  (14 avril 2019) :
 genre Alangium Lam., 1783
 genre Cornus L., 1753
 genre Swida (en) Opiz
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (14 avril 2019)[10] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 genre Acuba Link
 genre Afrocrania Hutch.
 genre Agathidanthes Hassk.
